--- a/medicine/Enfance/Carole_Boston_Weatherford/Carole_Boston_Weatherford.xlsx
+++ b/medicine/Enfance/Carole_Boston_Weatherford/Carole_Boston_Weatherford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carole Boston Weatherford est une écrivaine et critique littéraire américaine. Elle écrit principalement des livres pour enfants, mais aussi des livres historiques et de la poésie.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 2001 :
@@ -559,7 +575,7 @@
 Notable Social Studies Trade Books for Young People, Freedom on the Menu
 Golden Kite Honor Award for Picture Book Text, Dear Mr. Rosenwald
 2007 :
-« Honor Book » de la Médaille Caldecott[2] pour les illustrations de Kadir Nelson de l'ouvrage Moses, qu'elle a écrit
+« Honor Book » de la Médaille Caldecott pour les illustrations de Kadir Nelson de l'ouvrage Moses, qu'elle a écrit
 NAACP Image Award, Outstanding Literary Work for Children, Moses, pour les illustrations de Kadir Nelson
 Teachers' Choice (International Reading Association), Moses
 2008 :
@@ -569,12 +585,12 @@
 2010 : North Carolina Award for Literature
 (...)
 2016 :
-« Honor Book » de la Médaille Caldecott[2] pour les illustrations de Ekua Holmes de l'ouvrage Voice of Freedom: Fannie Lou Hamer, Spirit of the Civil Rights Movement, qu'elle a écrit
+« Honor Book » de la Médaille Caldecott pour les illustrations de Ekua Holmes de l'ouvrage Voice of Freedom: Fannie Lou Hamer, Spirit of the Civil Rights Movement, qu'elle a écrit
 2017 :
 Prix Charlotte-Zolotow
 « Honor Book » de la Médaille Caldecott pour les illustrations de R. Gregory Christie de l'ouvrage Un air de liberté à Congo Square [(en) Freedom in Congo Square  qu'elle a écrit
 2021 : Finaliste Médaille Newbery (Newbery Honor) pour BOX: Henry Brown Mails Himself to Freedom 
-2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren[1]</t>
+2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
@@ -602,7 +618,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Juneteenth Jamboree, with Yvonne Buchanan (Illustrator), 1995, Lee &amp; Low Books,  (ISBN 1-60060-248-7)
 (en) Grandma and Me, with Michelle Mills (Illustrator), 1997, Writers &amp; Readers Publishing,  (ISBN 0-86316-252-5)
@@ -634,9 +652,7 @@
 (en) The Library Ghost, with Lee White (Illustrator), 2008, Upstart Books,  (ISBN 1-60213-017-5)
 (en) Racing Against the Odds: Wendell Scott, African American Stock Car Champion, 2009, Marshall Cavendish Children's Books,  (ISBN 0-7614-5465-9)
 (en) Freedom in Congo Square , ill. R. Gregory Christie, 2017
-Un air de liberté à Congo Square, illustrations, R. Gregory Christie, éd. Piccolia, 2017
-Traductions en français
-Un air de liberté à Congo Square [(en) Freedom in Congo Square ], illustrations, R. Gregory Christie, éd. Piccolia, 2017</t>
+Un air de liberté à Congo Square, illustrations, R. Gregory Christie, éd. Piccolia, 2017</t>
         </is>
       </c>
     </row>
@@ -661,18 +677,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un air de liberté à Congo Square [(en) Freedom in Congo Square ], illustrations, R. Gregory Christie, éd. Piccolia, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carole_Boston_Weatherford</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carole_Boston_Weatherford</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Allégations de racisme dans la culture populaire d'Asie de l'Est</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Weatherford a écrit plusieurs articles attaquant ce qu'elle identifie comme des caricatures stéréotypées des Noirs dans la culture populaire d'Asie de l'Est, deux des plus importants étant orientés vers les dessins animés pour enfants, et un autre visant le nom d'une marque de dentifrice.
-Pokémon
-En janvier 2000, Weatherford a écrit un éditorial dans les journaux de l'Alabama.  Dans "Pokémon politiquement incorrect", elle a expliqué comment elle croyait que le Pokémon # 124, Lippoutou, était un stéréotype négatif des Afro-Américains :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carole_Boston_Weatherford</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carole_Boston_Weatherford</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Allégations de racisme dans la culture populaire d'Asie de l'Est</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pokémon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2000, Weatherford a écrit un éditorial dans les journaux de l'Alabama.  Dans "Pokémon politiquement incorrect", elle a expliqué comment elle croyait que le Pokémon # 124, Lippoutou, était un stéréotype négatif des Afro-Américains :
 Le personnage de Lippoutou, Pokémon # 124, a des traits résolument humains (contrairement à la plupart des autres personnages) : peau noire comme un jais, lèvres roses énormes, yeux béants, crinière blonde et pleine silhouette, décolleté et hanches ondulées.  En d'autres termes, Lippoutou ressemble à une incarnation de drag queen en surpoids de Little Black Sambo, un stéréotype raciste tiré d'un livre pour enfants depuis longtemps vidé des bibliothèques.
 En réponse à la controverse, les sprites de jeu de Lippoutou ont reçu une couleur pourpre dans les versions américaines de Pokémon Or et Argent, sorti fin 2000. En 2002, Nintendo a officiellement redessiné Lippoutou, changeant sa couleur de peau du noir au violet;  ce changement n'a pas été reflété dans la série animée jusqu'à ce que l'apparence de peau pourpre de Lippoutou ait débuté dans "Signifie avec envie"  et "Vacances Salut-Lippoutou" recolorant Lippoutou en conséquence même s'il est toujours noir sur la vignette.
-Dragon Ball
-Dans un article publié dans le Christian Science Monitor en mai 2000, Weatherford a réitéré et développé son argumentation.  Lippoutou avait l'air d'un «drag queen obèse», et elle a également offert à M. Popo, un personnage de la franchise Dragon Ball, une critique:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carole_Boston_Weatherford</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carole_Boston_Weatherford</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Allégations de racisme dans la culture populaire d'Asie de l'Est</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dragon Ball</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un article publié dans le Christian Science Monitor en mai 2000, Weatherford a réitéré et développé son argumentation.  Lippoutou avait l'air d'un «drag queen obèse», et elle a également offert à M. Popo, un personnage de la franchise Dragon Ball, une critique:
 M. Popo est un génie rond et turban avec des oreilles pointues, une peau noire comme le jais, des yeux blancs brillants et, oui, de grosses lèvres rouges.
 Le manga de Dragon Ball publié plus tard par Viz en 2003 avait réduit la taille des lèvres de M. Popo.  M. Popo, bien sûr, est un Djinn, qui dans la mythologie arabe est représenté avec une peau noire très foncée et cela n'a rien à voir avec les stéréotypes noirs.
 </t>
